--- a/4-电机测试/电机测试结果.xlsx
+++ b/4-电机测试/电机测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="24800" windowHeight="9860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>电机测试数据</t>
   </si>
@@ -38,7 +38,7 @@
     <t>转速(rad/min)</t>
   </si>
   <si>
-    <t>真空度(kPa)</t>
+    <t>最大真空度(kPa)</t>
   </si>
   <si>
     <t>备注</t>
@@ -95,13 +95,64 @@
     <t>2021.5.13</t>
   </si>
   <si>
-    <t>φ0.65+短磁钢+26.8外径，10高定子</t>
-  </si>
-  <si>
-    <t>9mm高定子</t>
+    <t>φ0.65+短磁钢+26.8外径，10mm定子1</t>
+  </si>
+  <si>
+    <t>3.5mm垫片</t>
+  </si>
+  <si>
+    <t>9mm4.4极身定子1</t>
   </si>
   <si>
     <t>15.8-16</t>
+  </si>
+  <si>
+    <t>2021.5.15</t>
+  </si>
+  <si>
+    <t>9mm4.4极身定子2</t>
+  </si>
+  <si>
+    <t>70000-71000</t>
+  </si>
+  <si>
+    <t>15.5—15.8</t>
+  </si>
+  <si>
+    <t>4.4极身启动时需要多次定位，相比定子1还换了风道（同样图纸的风道）</t>
+  </si>
+  <si>
+    <t>5月15日统一风道测试</t>
+  </si>
+  <si>
+    <t>10mm4.4极身定子2</t>
+  </si>
+  <si>
+    <t>15.2-15.4</t>
+  </si>
+  <si>
+    <t>4.4mm极身定子，启动时均需要多次定位</t>
+  </si>
+  <si>
+    <t>10mm4.4极身定子1</t>
+  </si>
+  <si>
+    <t>14.5-14.8</t>
+  </si>
+  <si>
+    <t>10mm4极身26外径定子</t>
+  </si>
+  <si>
+    <t>68000-70000</t>
+  </si>
+  <si>
+    <t>晨光定子</t>
+  </si>
+  <si>
+    <t>69000-70000</t>
+  </si>
+  <si>
+    <t>13.8-14.5</t>
   </si>
 </sst>
 </file>
@@ -109,9 +160,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -138,6 +189,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -146,85 +226,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,51 +242,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,181 +342,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,6 +570,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -543,6 +644,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -557,210 +667,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -775,58 +832,61 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
@@ -1093,23 +1153,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81666666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.81730769230769" defaultRowHeight="16.8"/>
   <cols>
-    <col min="2" max="2" width="10.8833333333333" customWidth="1"/>
-    <col min="3" max="3" width="17.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="14.5583333333333" customWidth="1"/>
-    <col min="5" max="5" width="13.475" customWidth="1"/>
-    <col min="6" max="6" width="15.8833333333333" customWidth="1"/>
-    <col min="7" max="7" width="12.4083333333333" customWidth="1"/>
-    <col min="8" max="8" width="25.0916666666667" customWidth="1"/>
+    <col min="2" max="2" width="10.8846153846154" customWidth="1"/>
+    <col min="3" max="3" width="35.9326923076923" customWidth="1"/>
+    <col min="4" max="4" width="14.5576923076923" customWidth="1"/>
+    <col min="5" max="5" width="13.4711538461538" customWidth="1"/>
+    <col min="6" max="6" width="15.8846153846154" customWidth="1"/>
+    <col min="7" max="7" width="20.1346153846154" customWidth="1"/>
+    <col min="8" max="8" width="67.6538461538462" customWidth="1"/>
+    <col min="9" max="9" width="25.2884615384615" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1" spans="1:8">
@@ -1344,38 +1405,123 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
+    <row r="12" spans="1:8">
+      <c r="A12" s="5">
         <v>7</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F12">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5">
         <v>69000</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
+      <c r="H12" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="5">
         <v>8</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5">
+        <v>70000</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F13">
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8">
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16">
         <v>70000</v>
       </c>
-      <c r="G13" t="s">
-        <v>28</v>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17">
+        <v>70000</v>
+      </c>
+      <c r="G17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1389,7 +1535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1397,7 +1543,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81666666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.81730769230769" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/4-电机测试/电机测试结果.xlsx
+++ b/4-电机测试/电机测试结果.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>电机测试数据</t>
   </si>
@@ -140,6 +140,9 @@
     <t>14.5-14.8</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>10mm4极身26外径定子</t>
   </si>
   <si>
@@ -153,6 +156,36 @@
   </si>
   <si>
     <t>13.8-14.5</t>
+  </si>
+  <si>
+    <t>2021.5.27</t>
+  </si>
+  <si>
+    <t>φ26定子1号</t>
+  </si>
+  <si>
+    <t>最高16.7</t>
+  </si>
+  <si>
+    <t>φ26定子2号</t>
+  </si>
+  <si>
+    <t>68000-71000</t>
+  </si>
+  <si>
+    <t>φ26定子3号</t>
+  </si>
+  <si>
+    <t>15.6-15.8</t>
+  </si>
+  <si>
+    <t>φ26定子4号</t>
+  </si>
+  <si>
+    <t>φ26定子5号</t>
+  </si>
+  <si>
+    <t>14.9，15.3</t>
   </si>
 </sst>
 </file>
@@ -161,9 +194,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -190,23 +223,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -219,16 +260,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,20 +285,27 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +314,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -274,60 +345,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,13 +387,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,49 +519,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,24 +555,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -451,84 +562,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,15 +606,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -599,6 +623,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,17 +683,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,168 +700,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1155,10 +1188,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81730769230769" defaultRowHeight="16.8"/>
@@ -1502,12 +1535,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="3:7">
+    <row r="18" spans="2:7">
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G18">
         <v>14.5</v>
@@ -1515,13 +1551,74 @@
     </row>
     <row r="19" spans="3:7">
       <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" t="s">
         <v>43</v>
       </c>
-      <c r="F19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" t="s">
-        <v>45</v>
+      <c r="G20">
+        <v>16.3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21">
+        <v>16.1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23">
+        <v>68000</v>
+      </c>
+      <c r="G23">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/4-电机测试/电机测试结果.xlsx
+++ b/4-电机测试/电机测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24800" windowHeight="9860"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>电机测试数据</t>
   </si>
@@ -183,9 +183,6 @@
   </si>
   <si>
     <t>φ26定子5号</t>
-  </si>
-  <si>
-    <t>14.9，15.3</t>
   </si>
 </sst>
 </file>
@@ -193,10 +190,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -223,16 +220,62 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,6 +294,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -261,99 +320,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,12 +378,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -399,169 +558,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,60 +602,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -683,11 +626,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,153 +658,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -872,54 +869,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
@@ -1186,24 +1183,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81730769230769" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9.81666666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="10.8846153846154" customWidth="1"/>
-    <col min="3" max="3" width="35.9326923076923" customWidth="1"/>
-    <col min="4" max="4" width="14.5576923076923" customWidth="1"/>
-    <col min="5" max="5" width="13.4711538461538" customWidth="1"/>
-    <col min="6" max="6" width="15.8846153846154" customWidth="1"/>
-    <col min="7" max="7" width="20.1346153846154" customWidth="1"/>
-    <col min="8" max="8" width="67.6538461538462" customWidth="1"/>
-    <col min="9" max="9" width="25.2884615384615" customWidth="1"/>
+    <col min="2" max="2" width="10.8833333333333" customWidth="1"/>
+    <col min="3" max="3" width="35.9333333333333" customWidth="1"/>
+    <col min="4" max="4" width="14.5583333333333" customWidth="1"/>
+    <col min="5" max="5" width="13.475" customWidth="1"/>
+    <col min="6" max="6" width="15.8833333333333" customWidth="1"/>
+    <col min="7" max="7" width="20.1333333333333" customWidth="1"/>
+    <col min="8" max="8" width="67.65" customWidth="1"/>
+    <col min="9" max="9" width="25.2916666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1" spans="1:8">
@@ -1603,11 +1600,11 @@
       <c r="C23" t="s">
         <v>54</v>
       </c>
-      <c r="F23">
-        <v>68000</v>
+      <c r="F23" t="s">
+        <v>51</v>
       </c>
       <c r="G23">
-        <v>15.2</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="24" spans="3:7">
@@ -1617,8 +1614,8 @@
       <c r="F24" t="s">
         <v>51</v>
       </c>
-      <c r="G24" t="s">
-        <v>56</v>
+      <c r="G24">
+        <v>15.8</v>
       </c>
     </row>
   </sheetData>
@@ -1632,7 +1629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1640,7 +1637,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81730769230769" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9.81666666666667" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/4-电机测试/电机测试结果.xlsx
+++ b/4-电机测试/电机测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
   <si>
     <t>电机测试数据</t>
   </si>
@@ -183,6 +183,49 @@
   </si>
   <si>
     <t>φ26定子5号</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>转速(r/min)</t>
+  </si>
+  <si>
+    <t>2021.5.28</t>
+  </si>
+  <si>
+    <t>1号机</t>
+  </si>
+  <si>
+    <t>85-105</t>
+  </si>
+  <si>
+    <t>16.1-16.5</t>
+  </si>
+  <si>
+    <t>以上数据均为空载功率为100W时测得，
+每台共测试5组数据</t>
+  </si>
+  <si>
+    <t>2号机</t>
+  </si>
+  <si>
+    <t>15.9-16.1</t>
+  </si>
+  <si>
+    <t>3号机</t>
+  </si>
+  <si>
+    <t>4号机</t>
+  </si>
+  <si>
+    <t>16.0-16.3</t>
+  </si>
+  <si>
+    <t>5号机</t>
+  </si>
+  <si>
+    <t>15.8-16.2</t>
   </si>
 </sst>
 </file>
@@ -190,9 +233,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -227,6 +270,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -248,13 +298,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -320,20 +363,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -350,14 +386,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,181 +421,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,15 +717,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -697,6 +731,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
@@ -705,10 +748,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -717,33 +760,33 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -762,92 +805,92 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -860,11 +903,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1187,8 +1239,8 @@
   <sheetPr/>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81666666666667" defaultRowHeight="13.5"/>
@@ -1242,381 +1294,431 @@
       </c>
     </row>
     <row r="3" ht="20.5" customHeight="1" spans="1:8">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>105</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="5">
         <v>115</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="5">
         <v>68000</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="5">
         <v>15.6</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" ht="20.5" customHeight="1" spans="1:8">
-      <c r="A4" s="3">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>105</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="5">
         <v>120</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="5">
         <v>71000</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="5">
         <v>16.7</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" ht="20.5" customHeight="1" spans="1:8">
-      <c r="A5" s="3">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="5">
         <v>105</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="5">
         <v>110</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5">
         <v>14.6</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="20.5" customHeight="1" spans="1:8">
-      <c r="A6" s="3">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>100</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="5">
         <v>120</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="5">
         <v>76000</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="5">
         <v>17</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="20.5" customHeight="1" spans="1:8">
-      <c r="A7" s="3">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <v>105</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="5">
         <v>120</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5">
         <v>15.7</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" ht="20.5" customHeight="1" spans="1:8">
-      <c r="A8" s="3">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <v>105</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="5">
         <v>120</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="5">
         <v>75000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="5">
         <v>17</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" ht="20.5" customHeight="1" spans="1:8">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" ht="20.5" customHeight="1" spans="1:8">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6">
         <v>74000</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="6">
         <v>16.5</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" ht="20.5" customHeight="1" spans="1:8">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6">
         <v>67000</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="6">
         <v>16.5</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="5">
+      <c r="A12" s="7">
         <v>7</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7">
         <v>69000</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="7">
         <v>15</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="5">
+      <c r="A13" s="7">
         <v>8</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7">
         <v>70000</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
-      <c r="B14" t="s">
+    <row r="14" spans="1:9">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F14" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="8" t="s">
         <v>34</v>
       </c>
       <c r="I14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
-      <c r="B15" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="3:8">
-      <c r="C16" t="s">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F16">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8">
         <v>70000</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="3:7">
-      <c r="C17" t="s">
+    <row r="17" spans="1:8">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F17">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8">
         <v>70000</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" t="s">
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F18" t="s">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="8">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="19" spans="3:7">
-      <c r="C19" t="s">
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F19" t="s">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" t="s">
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F20" t="s">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="8">
         <v>16.3</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="3:7">
-      <c r="C21" t="s">
+    <row r="21" spans="1:8">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F21" t="s">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="8">
         <v>16.1</v>
       </c>
-    </row>
-    <row r="22" spans="3:7">
-      <c r="C22" t="s">
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F22" t="s">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="23" spans="3:7">
-      <c r="C23" t="s">
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F23" t="s">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="8">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="24" spans="3:7">
-      <c r="C24" t="s">
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F24" t="s">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="8">
         <v>15.8</v>
       </c>
+      <c r="H24" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1631,16 +1733,184 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81666666666667" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.81666666666667" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="5.8" customWidth="1"/>
+    <col min="2" max="2" width="10.8916666666667" customWidth="1"/>
+    <col min="3" max="3" width="11.0666666666667" customWidth="1"/>
+    <col min="4" max="4" width="13.5583333333333" customWidth="1"/>
+    <col min="5" max="5" width="12.675" customWidth="1"/>
+    <col min="6" max="6" width="19.9083333333333" customWidth="1"/>
+    <col min="7" max="7" width="18.7416666666667" customWidth="1"/>
+    <col min="8" max="8" width="37.2333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="44" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" ht="30" customHeight="1" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="20.5" customHeight="1" spans="1:8">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="3">
+        <v>120</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" ht="20.5" customHeight="1" spans="1:8">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="3">
+        <v>120</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" ht="20.5" customHeight="1" spans="1:8">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="3">
+        <v>120</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" ht="20.5" customHeight="1" spans="1:8">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="3">
+        <v>120</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" ht="20.5" customHeight="1" spans="1:8">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="3">
+        <v>120</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="H3:H7"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
 </file>